--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2294965.933976442</v>
+        <v>2292150.042073989</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4916450.85405877</v>
+        <v>4916450.854058769</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>341.5967826021767</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -709,16 +709,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>305.1184028360237</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>257.2037267948028</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>153.9718296739638</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -898,22 +898,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>206.6723536741737</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -946,25 +946,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>229.9319842859729</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>146.8340739597078</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>95.35420068589637</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
@@ -1150,7 +1150,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>273.5165750111437</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1189,19 +1189,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>144.2413448484388</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>11.6126004996549</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>97.61153143263797</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>196.6296178221226</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>31.15461412430888</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,16 +1426,16 @@
         <v>220.8155294883027</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>252.4096561356111</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.26241643898371</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S12" t="n">
         <v>132.559580477319</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>51.31959200305125</v>
       </c>
       <c r="T13" t="n">
-        <v>233.1648087637851</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5818882760543</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.9043650187342228</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>220.0202080316562</v>
       </c>
       <c r="D14" t="n">
         <v>381.5867174954989</v>
@@ -1618,16 +1618,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>319.7892792266962</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>132.9900209556174</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>31.15461412430888</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>35.17478449803139</v>
+        <v>220.8155294883027</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.26241643898371</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S15" t="n">
         <v>132.559580477319</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
         <v>166.5253946797129</v>
@@ -1785,7 +1785,7 @@
         <v>153.5137285205242</v>
       </c>
       <c r="I16" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>161.05185726279</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>83.37143252216181</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
@@ -1855,16 +1855,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>132.9900209556174</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>31.15461412430888</v>
+        <v>31.15461412430886</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>182.145711052605</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>30.47184823781414</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.26241643898371</v>
+        <v>20.2624164389837</v>
       </c>
       <c r="S18" t="n">
         <v>132.559580477319</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.065617574819795</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5253946797129</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>153.5137285205242</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>199.9842001330971</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>282.5818882760543</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>107.6488577008958</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,13 +2086,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>265.2789320082184</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>408.9283142668997</v>
@@ -2101,7 +2101,7 @@
         <v>319.7892792266962</v>
       </c>
       <c r="I20" t="n">
-        <v>132.9900209556174</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>31.15461412430887</v>
       </c>
       <c r="S20" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1869771745492</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>55.2202975557805</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.5137285205242</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>264.1662903781401</v>
+        <v>34.97854367724121</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>315.0883627591632</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2335,10 +2335,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
-        <v>314.7099853831353</v>
+        <v>181.0739242066373</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7061862053774</v>
+        <v>201.5931031605974</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>75.30660633878145</v>
+        <v>226.5103736105632</v>
       </c>
       <c r="G26" t="n">
         <v>408.4323500200001</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2724,7 +2724,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.3029221927327</v>
@@ -2733,7 +2733,7 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>229.4361986393453</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>228.3779881719876</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
@@ -2812,7 +2812,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>182.6775837776859</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>164.2524624149223</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>196.1071114281788</v>
+        <v>34.95834693710609</v>
       </c>
       <c r="T31" t="n">
         <v>232.2142445012334</v>
@@ -3009,7 +3009,7 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>159.2407251246465</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>278.3508696015744</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>159.2943588232491</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S33" t="n">
         <v>127.6305556124798</v>
@@ -3186,31 +3186,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>76.19311257242965</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V34" t="n">
-        <v>28.76534375928884</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,13 +3271,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>408.4323500200001</v>
@@ -3286,7 +3286,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>40.23980568812909</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>344.428181980826</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S36" t="n">
         <v>127.6305556124798</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>76.19311257242965</v>
       </c>
       <c r="J37" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.86530851899109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,19 +3511,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>133.1293225227328</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H38" t="n">
-        <v>314.7099853831353</v>
+        <v>149.9114521408727</v>
       </c>
       <c r="I38" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
         <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S39" t="n">
         <v>127.6305556124798</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>282.5697534131281</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.628227282422692</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>84.69158102073659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,19 +3748,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
-        <v>108.3478702182216</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>289.3625986719988</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597835</v>
       </c>
       <c r="S42" t="n">
         <v>127.6305556124798</v>
@@ -3900,28 +3900,28 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.7760259168834</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J43" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>33.87861951038067</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>291.3759900050822</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
         <v>314.7099853831353</v>
@@ -4036,16 +4036,16 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>328.0953386326075</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4146,10 +4146,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>151.5357458635549</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U46" t="n">
-        <v>118.8510548107334</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>208.6924079413894</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1746.3151113673</v>
+        <v>949.0992058298266</v>
       </c>
       <c r="C2" t="n">
-        <v>1353.139609870231</v>
+        <v>949.0992058298266</v>
       </c>
       <c r="D2" t="n">
-        <v>1353.139609870231</v>
+        <v>949.0992058298266</v>
       </c>
       <c r="E2" t="n">
-        <v>950.5560849867752</v>
+        <v>546.515680946371</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>533.6616465167529</v>
       </c>
       <c r="G2" t="n">
         <v>524.5392950451601</v>
@@ -4330,19 +4330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4357,25 +4357,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>2844.462869050715</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U2" t="n">
-        <v>2844.462869050715</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V2" t="n">
-        <v>2844.462869050715</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W2" t="n">
-        <v>2844.462869050715</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X2" t="n">
-        <v>2455.010263983771</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y2" t="n">
-        <v>2146.809857078697</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="3">
@@ -4412,22 +4412,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K3" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M3" t="n">
-        <v>1208.156408878212</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N3" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O3" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P3" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q3" t="n">
         <v>2380.454662679751</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.2135530670377</v>
+        <v>350.8466661645229</v>
       </c>
       <c r="C4" t="n">
-        <v>195.2135530670377</v>
+        <v>350.8466661645229</v>
       </c>
       <c r="D4" t="n">
         <v>195.2135530670377</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>418.3256142503943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>418.3256142503943</v>
+        <v>808.0390495648965</v>
       </c>
       <c r="X4" t="n">
-        <v>418.3256142503943</v>
+        <v>573.9587273478795</v>
       </c>
       <c r="Y4" t="n">
-        <v>195.2135530670377</v>
+        <v>350.8466661645229</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2211.713593757527</v>
+        <v>746.1532826810144</v>
       </c>
       <c r="C5" t="n">
-        <v>1818.538092260458</v>
+        <v>746.1532826810144</v>
       </c>
       <c r="D5" t="n">
-        <v>1433.096963477125</v>
+        <v>746.1532826810144</v>
       </c>
       <c r="E5" t="n">
-        <v>1030.51343859367</v>
+        <v>746.1532826810144</v>
       </c>
       <c r="F5" t="n">
-        <v>613.6190001236475</v>
+        <v>733.2992482513962</v>
       </c>
       <c r="G5" t="n">
-        <v>200.4562446116507</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
         <v>200.4562446116507</v>
@@ -4594,25 +4594,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2844.462869050715</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U5" t="n">
-        <v>2844.462869050715</v>
+        <v>2645.697186866948</v>
       </c>
       <c r="V5" t="n">
-        <v>2612.208339468924</v>
+        <v>2303.590377570466</v>
       </c>
       <c r="W5" t="n">
-        <v>2612.208339468924</v>
+        <v>1932.591342538753</v>
       </c>
       <c r="X5" t="n">
-        <v>2612.208339468924</v>
+        <v>1543.13873747181</v>
       </c>
       <c r="Y5" t="n">
-        <v>2612.208339468924</v>
+        <v>1146.648028392411</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>381.858273766342</v>
+        <v>207.7175872278004</v>
       </c>
       <c r="L6" t="n">
-        <v>381.858273766342</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O6" t="n">
         <v>1974.833293963354</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>867.2487758154696</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>697.0436578814588</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>541.4105447839735</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H7" t="n">
         <v>62.11912770411553</v>
@@ -4755,22 +4755,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>579.5298519899548</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>296.1994499211324</v>
+        <v>867.2487758154696</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>867.2487758154696</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>867.2487758154696</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>902.7524032513907</v>
+        <v>2131.756240150632</v>
       </c>
       <c r="C8" t="n">
-        <v>902.7524032513907</v>
+        <v>1738.580738653563</v>
       </c>
       <c r="D8" t="n">
-        <v>902.7524032513907</v>
+        <v>1353.139609870231</v>
       </c>
       <c r="E8" t="n">
-        <v>902.7524032513907</v>
+        <v>950.5560849867752</v>
       </c>
       <c r="F8" t="n">
-        <v>889.8983688217725</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G8" t="n">
-        <v>476.7356133097756</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V8" t="n">
-        <v>2460.189498140842</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W8" t="n">
-        <v>2089.19046310913</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X8" t="n">
-        <v>1699.737858042186</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y8" t="n">
-        <v>1303.247148962788</v>
+        <v>2532.250985862029</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L9" t="n">
-        <v>865.4243596646552</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M9" t="n">
-        <v>865.4243596646552</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>555.24607037101</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="C10" t="n">
-        <v>385.0409524369992</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="D10" t="n">
-        <v>229.4078393395139</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="E10" t="n">
-        <v>73.84902719871644</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="G10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="Y10" t="n">
-        <v>740.4540890623113</v>
+        <v>160.7166342017296</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1662.590491899458</v>
+        <v>1444.311829007337</v>
       </c>
       <c r="C11" t="n">
-        <v>1269.414990402388</v>
+        <v>1051.136327510268</v>
       </c>
       <c r="D11" t="n">
-        <v>883.9738616190559</v>
+        <v>665.6951987269354</v>
       </c>
       <c r="E11" t="n">
-        <v>481.3903367356005</v>
+        <v>263.1116738434799</v>
       </c>
       <c r="F11" t="n">
         <v>64.49589826557825</v>
@@ -5041,19 +5041,19 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J11" t="n">
-        <v>217.7845927599037</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K11" t="n">
-        <v>589.7144528346265</v>
+        <v>589.7144528346269</v>
       </c>
       <c r="L11" t="n">
         <v>1099.097268220407</v>
       </c>
       <c r="M11" t="n">
-        <v>1662.970820761778</v>
+        <v>1662.970820761779</v>
       </c>
       <c r="N11" t="n">
-        <v>2208.943955098712</v>
+        <v>2208.943955098713</v>
       </c>
       <c r="O11" t="n">
         <v>2666.1332765971</v>
@@ -5062,31 +5062,31 @@
         <v>3028.957658493084</v>
       </c>
       <c r="Q11" t="n">
-        <v>3224.794913278912</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="R11" t="n">
-        <v>3193.325606082641</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="S11" t="n">
-        <v>3193.325606082641</v>
+        <v>3224.794913278913</v>
       </c>
       <c r="T11" t="n">
-        <v>2970.279616700517</v>
+        <v>3001.748923896789</v>
       </c>
       <c r="U11" t="n">
-        <v>2714.535195312083</v>
+        <v>3001.748923896789</v>
       </c>
       <c r="V11" t="n">
-        <v>2459.575946690254</v>
+        <v>3001.748923896789</v>
       </c>
       <c r="W11" t="n">
-        <v>2459.575946690254</v>
+        <v>2630.749888865076</v>
       </c>
       <c r="X11" t="n">
-        <v>2459.575946690254</v>
+        <v>2241.297283798133</v>
       </c>
       <c r="Y11" t="n">
-        <v>2063.085237610855</v>
+        <v>1844.806574718734</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J12" t="n">
-        <v>64.49589826557825</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K12" t="n">
-        <v>64.49589826557825</v>
+        <v>511.2894164059157</v>
       </c>
       <c r="L12" t="n">
-        <v>118.6051137611202</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M12" t="n">
-        <v>760.1757035865543</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="N12" t="n">
-        <v>1430.117831882899</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O12" t="n">
-        <v>1959.595551014676</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P12" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q12" t="n">
         <v>2375.616404902846</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>220.1290113630635</v>
+        <v>690.1607992979348</v>
       </c>
       <c r="C13" t="n">
-        <v>220.1290113630635</v>
+        <v>519.955681363924</v>
       </c>
       <c r="D13" t="n">
-        <v>64.49589826557825</v>
+        <v>519.955681363924</v>
       </c>
       <c r="E13" t="n">
-        <v>64.49589826557825</v>
+        <v>364.3968692231265</v>
       </c>
       <c r="F13" t="n">
-        <v>64.49589826557825</v>
+        <v>364.3968692231265</v>
       </c>
       <c r="G13" t="n">
-        <v>64.49589826557825</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="H13" t="n">
-        <v>64.49589826557825</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="I13" t="n">
         <v>64.49589826557825</v>
@@ -5211,10 +5211,10 @@
         <v>515.999772555175</v>
       </c>
       <c r="N13" t="n">
-        <v>706.1762485284991</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O13" t="n">
-        <v>875.3344949568882</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P13" t="n">
         <v>1000.732727221787</v>
@@ -5226,25 +5226,25 @@
         <v>1007.978116197364</v>
       </c>
       <c r="S13" t="n">
-        <v>1007.978116197364</v>
+        <v>956.1401444771105</v>
       </c>
       <c r="T13" t="n">
-        <v>772.458107345056</v>
+        <v>956.1401444771105</v>
       </c>
       <c r="U13" t="n">
-        <v>487.0218565611627</v>
+        <v>956.1401444771105</v>
       </c>
       <c r="V13" t="n">
-        <v>221.042511381987</v>
+        <v>690.1607992979348</v>
       </c>
       <c r="W13" t="n">
-        <v>221.042511381987</v>
+        <v>690.1607992979348</v>
       </c>
       <c r="X13" t="n">
-        <v>220.1290113630635</v>
+        <v>690.1607992979348</v>
       </c>
       <c r="Y13" t="n">
-        <v>220.1290113630635</v>
+        <v>690.1607992979348</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2116.107785196318</v>
+        <v>1491.657624777798</v>
       </c>
       <c r="C14" t="n">
-        <v>1722.932283699248</v>
+        <v>1269.414990402388</v>
       </c>
       <c r="D14" t="n">
-        <v>1337.491154915916</v>
+        <v>883.9738616190559</v>
       </c>
       <c r="E14" t="n">
-        <v>934.9076300324605</v>
+        <v>481.3903367356005</v>
       </c>
       <c r="F14" t="n">
-        <v>934.9076300324605</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="G14" t="n">
-        <v>521.8487267325618</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="H14" t="n">
-        <v>198.8292527662019</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="I14" t="n">
         <v>64.49589826557825</v>
       </c>
       <c r="J14" t="n">
-        <v>217.7845927599038</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K14" t="n">
-        <v>589.7144528346267</v>
+        <v>589.7144528346269</v>
       </c>
       <c r="L14" t="n">
         <v>1099.097268220407</v>
@@ -5302,28 +5302,28 @@
         <v>3224.794913278912</v>
       </c>
       <c r="R14" t="n">
-        <v>3193.325606082641</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="S14" t="n">
-        <v>3193.325606082641</v>
+        <v>3224.794913278912</v>
       </c>
       <c r="T14" t="n">
-        <v>3157.795520731094</v>
+        <v>3001.748923896788</v>
       </c>
       <c r="U14" t="n">
-        <v>2902.05109934266</v>
+        <v>3001.748923896788</v>
       </c>
       <c r="V14" t="n">
-        <v>2902.05109934266</v>
+        <v>2659.642114600307</v>
       </c>
       <c r="W14" t="n">
-        <v>2902.05109934266</v>
+        <v>2288.643079568594</v>
       </c>
       <c r="X14" t="n">
-        <v>2512.598494275717</v>
+        <v>2288.643079568594</v>
       </c>
       <c r="Y14" t="n">
-        <v>2116.107785196318</v>
+        <v>1892.152370489195</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J15" t="n">
-        <v>64.49589826557825</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K15" t="n">
-        <v>64.49589826557825</v>
+        <v>511.2894164059157</v>
       </c>
       <c r="L15" t="n">
-        <v>534.62596764929</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.196557474724</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="N15" t="n">
-        <v>1846.138685771069</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O15" t="n">
-        <v>2375.616404902846</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P15" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q15" t="n">
         <v>2375.616404902846</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>845.2994724975763</v>
+        <v>700.6524868098038</v>
       </c>
       <c r="C16" t="n">
-        <v>675.0943545635655</v>
+        <v>700.6524868098038</v>
       </c>
       <c r="D16" t="n">
-        <v>519.4612414660802</v>
+        <v>700.6524868098038</v>
       </c>
       <c r="E16" t="n">
-        <v>519.4612414660802</v>
+        <v>545.0936746690063</v>
       </c>
       <c r="F16" t="n">
-        <v>519.4612414660802</v>
+        <v>387.7677398819793</v>
       </c>
       <c r="G16" t="n">
-        <v>351.2537720926329</v>
+        <v>219.560270508532</v>
       </c>
       <c r="H16" t="n">
-        <v>196.1893998496791</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="I16" t="n">
         <v>64.49589826557825</v>
@@ -5448,10 +5448,10 @@
         <v>515.999772555175</v>
       </c>
       <c r="N16" t="n">
-        <v>706.1762485284991</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O16" t="n">
-        <v>875.3344949568882</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P16" t="n">
         <v>1000.732727221787</v>
@@ -5463,25 +5463,25 @@
         <v>1007.978116197364</v>
       </c>
       <c r="S16" t="n">
-        <v>845.2994724975763</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T16" t="n">
-        <v>845.2994724975763</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="U16" t="n">
-        <v>845.2994724975763</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="V16" t="n">
-        <v>845.2994724975763</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="W16" t="n">
-        <v>845.2994724975763</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="X16" t="n">
-        <v>845.2994724975763</v>
+        <v>923.7645479931605</v>
       </c>
       <c r="Y16" t="n">
-        <v>845.2994724975763</v>
+        <v>700.6524868098038</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1403.748344903012</v>
+        <v>1658.754956729334</v>
       </c>
       <c r="C17" t="n">
-        <v>1403.748344903012</v>
+        <v>1265.579455232265</v>
       </c>
       <c r="D17" t="n">
-        <v>1018.30721611968</v>
+        <v>880.1383264489325</v>
       </c>
       <c r="E17" t="n">
-        <v>615.7236912362241</v>
+        <v>477.554801565477</v>
       </c>
       <c r="F17" t="n">
-        <v>198.8292527662019</v>
+        <v>477.554801565477</v>
       </c>
       <c r="G17" t="n">
-        <v>198.8292527662019</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="H17" t="n">
-        <v>198.8292527662019</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="I17" t="n">
         <v>64.49589826557825</v>
       </c>
       <c r="J17" t="n">
-        <v>217.7845927599037</v>
+        <v>217.7845927599039</v>
       </c>
       <c r="K17" t="n">
-        <v>589.7144528346265</v>
+        <v>589.7144528346269</v>
       </c>
       <c r="L17" t="n">
         <v>1099.097268220407</v>
       </c>
       <c r="M17" t="n">
-        <v>1662.970820761778</v>
+        <v>1662.970820761779</v>
       </c>
       <c r="N17" t="n">
         <v>2208.943955098712</v>
       </c>
       <c r="O17" t="n">
-        <v>2666.1332765971</v>
+        <v>2666.133276597099</v>
       </c>
       <c r="P17" t="n">
         <v>3028.957658493084</v>
@@ -5542,25 +5542,25 @@
         <v>3193.325606082641</v>
       </c>
       <c r="S17" t="n">
-        <v>3193.325606082641</v>
+        <v>3029.178583306877</v>
       </c>
       <c r="T17" t="n">
-        <v>3193.325606082641</v>
+        <v>2845.193016587074</v>
       </c>
       <c r="U17" t="n">
-        <v>2937.581184694207</v>
+        <v>2845.193016587074</v>
       </c>
       <c r="V17" t="n">
-        <v>2595.474375397725</v>
+        <v>2845.193016587074</v>
       </c>
       <c r="W17" t="n">
-        <v>2224.475340366013</v>
+        <v>2845.193016587074</v>
       </c>
       <c r="X17" t="n">
-        <v>1835.02273529907</v>
+        <v>2455.74041152013</v>
       </c>
       <c r="Y17" t="n">
-        <v>1804.243090614409</v>
+        <v>2059.249702440731</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J18" t="n">
-        <v>64.49589826557825</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K18" t="n">
-        <v>64.49589826557825</v>
+        <v>511.2894164059157</v>
       </c>
       <c r="L18" t="n">
-        <v>559.8867467489575</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.196557474724</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="N18" t="n">
-        <v>1846.138685771069</v>
+        <v>1188.800959896219</v>
       </c>
       <c r="O18" t="n">
-        <v>2375.616404902846</v>
+        <v>1718.278679027995</v>
       </c>
       <c r="P18" t="n">
-        <v>2375.616404902846</v>
+        <v>2134.299532916165</v>
       </c>
       <c r="Q18" t="n">
         <v>2375.616404902846</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>520.5376228547871</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="C19" t="n">
-        <v>520.5376228547871</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="D19" t="n">
-        <v>520.5376228547871</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="E19" t="n">
-        <v>519.4612414660802</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="F19" t="n">
-        <v>519.4612414660802</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="G19" t="n">
-        <v>351.2537720926329</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="H19" t="n">
-        <v>196.1893998496791</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="I19" t="n">
         <v>64.49589826557825</v>
@@ -5685,10 +5685,10 @@
         <v>515.999772555175</v>
       </c>
       <c r="N19" t="n">
-        <v>706.1762485284991</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O19" t="n">
-        <v>875.3344949568882</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P19" t="n">
         <v>1000.732727221787</v>
@@ -5700,25 +5700,25 @@
         <v>1007.978116197364</v>
       </c>
       <c r="S19" t="n">
-        <v>805.9738736386803</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T19" t="n">
-        <v>805.9738736386803</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="U19" t="n">
-        <v>520.5376228547871</v>
+        <v>722.5418654134711</v>
       </c>
       <c r="V19" t="n">
-        <v>520.5376228547871</v>
+        <v>456.5625202342953</v>
       </c>
       <c r="W19" t="n">
-        <v>520.5376228547871</v>
+        <v>173.232118165473</v>
       </c>
       <c r="X19" t="n">
-        <v>520.5376228547871</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="Y19" t="n">
-        <v>520.5376228547871</v>
+        <v>64.49589826557825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1605.449672095935</v>
+        <v>2005.493367668647</v>
       </c>
       <c r="C20" t="n">
-        <v>1605.449672095935</v>
+        <v>2005.493367668647</v>
       </c>
       <c r="D20" t="n">
-        <v>1605.449672095935</v>
+        <v>1620.052238885315</v>
       </c>
       <c r="E20" t="n">
-        <v>1202.866147212479</v>
+        <v>1217.468714001859</v>
       </c>
       <c r="F20" t="n">
-        <v>934.9076300324605</v>
+        <v>800.5742755318367</v>
       </c>
       <c r="G20" t="n">
-        <v>521.8487267325617</v>
+        <v>387.515372231938</v>
       </c>
       <c r="H20" t="n">
-        <v>198.8292527662019</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="I20" t="n">
         <v>64.49589826557825</v>
@@ -5779,25 +5779,25 @@
         <v>3193.325606082641</v>
       </c>
       <c r="S20" t="n">
-        <v>3029.178583306877</v>
+        <v>3193.325606082641</v>
       </c>
       <c r="T20" t="n">
-        <v>3029.178583306877</v>
+        <v>3193.325606082641</v>
       </c>
       <c r="U20" t="n">
-        <v>2773.434161918443</v>
+        <v>3193.325606082641</v>
       </c>
       <c r="V20" t="n">
-        <v>2773.434161918443</v>
+        <v>2851.218796786159</v>
       </c>
       <c r="W20" t="n">
-        <v>2402.43512688673</v>
+        <v>2795.440718446987</v>
       </c>
       <c r="X20" t="n">
-        <v>2402.43512688673</v>
+        <v>2405.988113380044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2005.944417807332</v>
+        <v>2405.988113380044</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>64.49589826557825</v>
       </c>
       <c r="J21" t="n">
-        <v>64.49589826557825</v>
+        <v>182.7561629990903</v>
       </c>
       <c r="K21" t="n">
-        <v>393.0291516724038</v>
+        <v>511.2894164059157</v>
       </c>
       <c r="L21" t="n">
-        <v>888.4200001557831</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="M21" t="n">
-        <v>888.4200001557831</v>
+        <v>1006.680264889295</v>
       </c>
       <c r="N21" t="n">
         <v>1188.800959896219</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2451.517813281137</v>
+        <v>521.4588900266436</v>
       </c>
       <c r="C22" t="n">
-        <v>2281.312695347126</v>
+        <v>351.2537720926329</v>
       </c>
       <c r="D22" t="n">
-        <v>2281.312695347126</v>
+        <v>351.2537720926329</v>
       </c>
       <c r="E22" t="n">
-        <v>2281.312695347126</v>
+        <v>351.2537720926329</v>
       </c>
       <c r="F22" t="n">
-        <v>2281.312695347126</v>
+        <v>351.2537720926329</v>
       </c>
       <c r="G22" t="n">
-        <v>2281.312695347126</v>
+        <v>351.2537720926329</v>
       </c>
       <c r="H22" t="n">
-        <v>2281.312695347126</v>
+        <v>196.1893998496791</v>
       </c>
       <c r="I22" t="n">
-        <v>2281.312695347126</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="J22" t="n">
-        <v>2281.312695347126</v>
+        <v>64.49589826557825</v>
       </c>
       <c r="K22" t="n">
-        <v>2368.45230724185</v>
+        <v>151.6355101603017</v>
       </c>
       <c r="L22" t="n">
-        <v>2539.367971420369</v>
+        <v>322.5511743388212</v>
       </c>
       <c r="M22" t="n">
-        <v>2732.816569636723</v>
+        <v>515.999772555175</v>
       </c>
       <c r="N22" t="n">
-        <v>2922.993045610047</v>
+        <v>706.1762485284992</v>
       </c>
       <c r="O22" t="n">
-        <v>3092.151292038436</v>
+        <v>875.3344949568883</v>
       </c>
       <c r="P22" t="n">
-        <v>3217.549524303335</v>
+        <v>1000.732727221787</v>
       </c>
       <c r="Q22" t="n">
-        <v>3224.794913278912</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="R22" t="n">
-        <v>3224.794913278912</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="S22" t="n">
-        <v>3224.794913278912</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="T22" t="n">
-        <v>3224.794913278912</v>
+        <v>1007.978116197364</v>
       </c>
       <c r="U22" t="n">
-        <v>2957.960276533316</v>
+        <v>972.6462538971207</v>
       </c>
       <c r="V22" t="n">
-        <v>2957.960276533316</v>
+        <v>706.6669087179449</v>
       </c>
       <c r="W22" t="n">
-        <v>2674.629874464494</v>
+        <v>706.6669087179449</v>
       </c>
       <c r="X22" t="n">
-        <v>2674.629874464494</v>
+        <v>706.6669087179449</v>
       </c>
       <c r="Y22" t="n">
-        <v>2451.517813281137</v>
+        <v>706.6669087179449</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2059.176626708733</v>
+        <v>2269.516708238953</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.176626708733</v>
+        <v>1876.341206741883</v>
       </c>
       <c r="D23" t="n">
-        <v>1740.905553214629</v>
+        <v>1490.900077958551</v>
       </c>
       <c r="E23" t="n">
-        <v>1338.322028331173</v>
+        <v>1088.316553075095</v>
       </c>
       <c r="F23" t="n">
-        <v>921.4275898611513</v>
+        <v>671.422114605073</v>
       </c>
       <c r="G23" t="n">
-        <v>508.8696605480199</v>
+        <v>258.8641852919416</v>
       </c>
       <c r="H23" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I23" t="n">
         <v>75.96123154786346</v>
@@ -5992,13 +5992,13 @@
         <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130499</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612517</v>
+        <v>1292.177839612518</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
         <v>2575.851817818622</v>
@@ -6016,25 +6016,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S23" t="n">
-        <v>3645.330499340869</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T23" t="n">
-        <v>3424.477523585819</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U23" t="n">
-        <v>3168.773180116326</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V23" t="n">
-        <v>2826.666370819845</v>
+        <v>3455.954768096692</v>
       </c>
       <c r="W23" t="n">
-        <v>2455.667335788132</v>
+        <v>3455.954768096692</v>
       </c>
       <c r="X23" t="n">
-        <v>2455.667335788132</v>
+        <v>3066.502163029748</v>
       </c>
       <c r="Y23" t="n">
-        <v>2059.176626708733</v>
+        <v>2670.011453950349</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>75.96123154786346</v>
       </c>
       <c r="J24" t="n">
-        <v>219.0418890481681</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K24" t="n">
-        <v>589.997147027437</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L24" t="n">
-        <v>589.997147027437</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M24" t="n">
-        <v>589.997147027437</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N24" t="n">
-        <v>1328.265930106663</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="O24" t="n">
-        <v>1920.249189669255</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>512.088724605964</v>
+        <v>246.1663494818742</v>
       </c>
       <c r="C25" t="n">
-        <v>512.088724605964</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D25" t="n">
-        <v>356.4556115084787</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8967993676812</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F25" t="n">
-        <v>200.8967993676812</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G25" t="n">
-        <v>200.8967993676812</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H25" t="n">
-        <v>200.8967993676812</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I25" t="n">
         <v>75.96123154786346</v>
@@ -6153,13 +6153,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N25" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O25" t="n">
         <v>1044.49322140544</v>
@@ -6168,31 +6168,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S25" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T25" t="n">
-        <v>789.5697207730119</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U25" t="n">
-        <v>512.088724605964</v>
+        <v>1018.588157913229</v>
       </c>
       <c r="V25" t="n">
-        <v>512.088724605964</v>
+        <v>752.6088127340533</v>
       </c>
       <c r="W25" t="n">
-        <v>512.088724605964</v>
+        <v>469.2784106652309</v>
       </c>
       <c r="X25" t="n">
-        <v>512.088724605964</v>
+        <v>469.2784106652309</v>
       </c>
       <c r="Y25" t="n">
-        <v>512.088724605964</v>
+        <v>246.1663494818742</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1745.786595154935</v>
+        <v>1898.517673207239</v>
       </c>
       <c r="C26" t="n">
-        <v>1352.611093657865</v>
+        <v>1505.34217171017</v>
       </c>
       <c r="D26" t="n">
-        <v>967.1699648745328</v>
+        <v>1119.901042926838</v>
       </c>
       <c r="E26" t="n">
-        <v>564.5864399910772</v>
+        <v>717.3175180433821</v>
       </c>
       <c r="F26" t="n">
         <v>488.5191608609949</v>
@@ -6244,34 +6244,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T26" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U26" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V26" t="n">
-        <v>3303.223690044386</v>
+        <v>3455.954768096691</v>
       </c>
       <c r="W26" t="n">
-        <v>2932.224655012674</v>
+        <v>3084.955733064979</v>
       </c>
       <c r="X26" t="n">
-        <v>2542.77204994573</v>
+        <v>2695.503127998035</v>
       </c>
       <c r="Y26" t="n">
-        <v>2146.281340866331</v>
+        <v>2299.012418918636</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J27" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L27" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M27" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N27" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O27" t="n">
-        <v>2352.277072610002</v>
+        <v>1734.412875421585</v>
       </c>
       <c r="P27" t="n">
-        <v>2352.277072610002</v>
+        <v>2200.59993609127</v>
       </c>
       <c r="Q27" t="n">
         <v>2352.277072610002</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>990.4638190458068</v>
+        <v>708.202316438962</v>
       </c>
       <c r="C28" t="n">
-        <v>990.4638190458068</v>
+        <v>708.202316438962</v>
       </c>
       <c r="D28" t="n">
-        <v>834.8307059483216</v>
+        <v>552.5692033414767</v>
       </c>
       <c r="E28" t="n">
-        <v>679.2718938075241</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="F28" t="n">
-        <v>521.945959020497</v>
+        <v>397.0103912006792</v>
       </c>
       <c r="G28" t="n">
-        <v>353.9632093308679</v>
+        <v>229.0276415110502</v>
       </c>
       <c r="H28" t="n">
-        <v>200.8967993676811</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I28" t="n">
         <v>75.96123154786345</v>
@@ -6390,13 +6390,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O28" t="n">
         <v>1044.49322140544</v>
@@ -6405,31 +6405,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U28" t="n">
-        <v>990.4638190458068</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="V28" t="n">
-        <v>990.4638190458068</v>
+        <v>991.5327185077845</v>
       </c>
       <c r="W28" t="n">
-        <v>990.4638190458068</v>
+        <v>708.202316438962</v>
       </c>
       <c r="X28" t="n">
-        <v>990.4638190458068</v>
+        <v>708.202316438962</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.4638190458068</v>
+        <v>708.202316438962</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1740.905553214629</v>
+        <v>1987.608190149231</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.905553214629</v>
+        <v>1594.432688652162</v>
       </c>
       <c r="D29" t="n">
-        <v>1740.905553214629</v>
+        <v>1208.99155986883</v>
       </c>
       <c r="E29" t="n">
-        <v>1338.322028331173</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="F29" t="n">
-        <v>921.4275898611513</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G29" t="n">
-        <v>508.8696605480199</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130498</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
@@ -6475,40 +6475,40 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T29" t="n">
-        <v>3424.477523585818</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U29" t="n">
-        <v>3239.954711689165</v>
+        <v>3321.504258168631</v>
       </c>
       <c r="V29" t="n">
-        <v>2897.847902392684</v>
+        <v>3155.59267997174</v>
       </c>
       <c r="W29" t="n">
-        <v>2526.848867360971</v>
+        <v>2784.593644940027</v>
       </c>
       <c r="X29" t="n">
-        <v>2137.396262294028</v>
+        <v>2784.593644940027</v>
       </c>
       <c r="Y29" t="n">
-        <v>1740.905553214629</v>
+        <v>2388.102935860628</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>439.6857585687511</v>
       </c>
       <c r="L30" t="n">
-        <v>75.96123154786345</v>
+        <v>439.6857585687511</v>
       </c>
       <c r="M30" t="n">
-        <v>555.8379692984988</v>
+        <v>1147.821228861091</v>
       </c>
       <c r="N30" t="n">
-        <v>1294.106752377725</v>
+        <v>1886.090011940317</v>
       </c>
       <c r="O30" t="n">
         <v>1886.090011940317</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231.5943446453487</v>
+        <v>666.9222572153802</v>
       </c>
       <c r="C31" t="n">
-        <v>231.5943446453487</v>
+        <v>666.9222572153802</v>
       </c>
       <c r="D31" t="n">
-        <v>75.96123154786345</v>
+        <v>511.289144117895</v>
       </c>
       <c r="E31" t="n">
-        <v>75.96123154786345</v>
+        <v>511.289144117895</v>
       </c>
       <c r="F31" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="G31" t="n">
-        <v>75.96123154786345</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6642,31 +6642,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>912.4273982201044</v>
+        <v>1186.906093492513</v>
       </c>
       <c r="T31" t="n">
-        <v>677.8675552895655</v>
+        <v>952.3462505619743</v>
       </c>
       <c r="U31" t="n">
-        <v>392.4435619429715</v>
+        <v>666.9222572153802</v>
       </c>
       <c r="V31" t="n">
-        <v>231.5943446453487</v>
+        <v>666.9222572153802</v>
       </c>
       <c r="W31" t="n">
-        <v>231.5943446453487</v>
+        <v>666.9222572153802</v>
       </c>
       <c r="X31" t="n">
-        <v>231.5943446453487</v>
+        <v>666.9222572153802</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.5943446453487</v>
+        <v>666.9222572153802</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.627745025009</v>
+        <v>1982.335120258587</v>
       </c>
       <c r="C32" t="n">
-        <v>1709.452243527939</v>
+        <v>1589.159618761518</v>
       </c>
       <c r="D32" t="n">
-        <v>1324.011114744607</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E32" t="n">
-        <v>921.4275898611513</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F32" t="n">
-        <v>921.4275898611513</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G32" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H32" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I32" t="n">
         <v>75.96123154786345</v>
@@ -6703,7 +6703,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
@@ -6712,19 +6712,19 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N32" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O32" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
         <v>3645.330499340868</v>
@@ -6733,19 +6733,19 @@
         <v>3424.477523585818</v>
       </c>
       <c r="U32" t="n">
-        <v>3424.477523585818</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V32" t="n">
-        <v>3424.477523585818</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="W32" t="n">
-        <v>3053.478488554105</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="X32" t="n">
-        <v>2664.025883487162</v>
+        <v>2779.320575049383</v>
       </c>
       <c r="Y32" t="n">
-        <v>2503.122490736405</v>
+        <v>2382.829865969984</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750985</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O33" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3126.125751800815</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="C34" t="n">
-        <v>2955.920633866804</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="D34" t="n">
-        <v>2955.920633866804</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="E34" t="n">
-        <v>2955.920633866804</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F34" t="n">
-        <v>2955.920633866804</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G34" t="n">
-        <v>2787.937884177175</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H34" t="n">
-        <v>2787.937884177175</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I34" t="n">
-        <v>2663.002316357357</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J34" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K34" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L34" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M34" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N34" t="n">
-        <v>3420.047977276967</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O34" t="n">
-        <v>3620.337243753467</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P34" t="n">
-        <v>3772.373441719425</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q34" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R34" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S34" t="n">
-        <v>3798.061577393172</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T34" t="n">
-        <v>3563.501734462634</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U34" t="n">
-        <v>3563.501734462634</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V34" t="n">
-        <v>3534.445831675473</v>
+        <v>436.254373588837</v>
       </c>
       <c r="W34" t="n">
-        <v>3534.445831675473</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="X34" t="n">
-        <v>3534.445831675473</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="Y34" t="n">
-        <v>3311.333770492116</v>
+        <v>152.9239715200146</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1642.813329737747</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="C35" t="n">
-        <v>1249.637828240677</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D35" t="n">
-        <v>1249.637828240677</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E35" t="n">
-        <v>847.0543033572217</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F35" t="n">
-        <v>847.0543033572217</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G35" t="n">
-        <v>434.4963740440902</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H35" t="n">
-        <v>116.607499919711</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
         <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T35" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U35" t="n">
-        <v>3542.35723392368</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="V35" t="n">
-        <v>3200.250424627198</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="W35" t="n">
-        <v>2829.251389595486</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="X35" t="n">
-        <v>2439.798784528542</v>
+        <v>3152.904628856737</v>
       </c>
       <c r="Y35" t="n">
-        <v>2043.308075449144</v>
+        <v>2804.99737433065</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L36" t="n">
-        <v>75.96123154786345</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M36" t="n">
-        <v>784.0967018402031</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.365484919429</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O36" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>570.3224598278532</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="C37" t="n">
-        <v>400.1173418938424</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="D37" t="n">
-        <v>244.4842287963572</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="E37" t="n">
-        <v>244.4842287963572</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="F37" t="n">
-        <v>87.15829400933012</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="G37" t="n">
-        <v>87.15829400933012</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="H37" t="n">
-        <v>87.15829400933012</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="I37" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
         <v>75.96123154786345</v>
@@ -7101,13 +7101,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L37" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M37" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N37" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O37" t="n">
         <v>1044.49322140544</v>
@@ -7116,31 +7116,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q37" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R37" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S37" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T37" t="n">
-        <v>1110.515389561699</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U37" t="n">
-        <v>825.0913962151051</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V37" t="n">
-        <v>825.0913962151051</v>
+        <v>436.254373588837</v>
       </c>
       <c r="W37" t="n">
-        <v>825.0913962151051</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="X37" t="n">
-        <v>825.0913962151051</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="Y37" t="n">
-        <v>755.5304785191545</v>
+        <v>152.9239715200146</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1421.960353982697</v>
+        <v>2238.039463728079</v>
       </c>
       <c r="C38" t="n">
-        <v>1028.784852485628</v>
+        <v>1844.86396223101</v>
       </c>
       <c r="D38" t="n">
-        <v>643.3437237022954</v>
+        <v>1459.422833447677</v>
       </c>
       <c r="E38" t="n">
-        <v>643.3437237022954</v>
+        <v>1056.839308564222</v>
       </c>
       <c r="F38" t="n">
-        <v>643.3437237022954</v>
+        <v>639.9448700941997</v>
       </c>
       <c r="G38" t="n">
-        <v>508.8696605480199</v>
+        <v>227.3869407810682</v>
       </c>
       <c r="H38" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
         <v>75.96123154786345</v>
@@ -7192,34 +7192,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P38" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R38" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T38" t="n">
-        <v>3577.208601638122</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U38" t="n">
-        <v>3321.50425816863</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V38" t="n">
-        <v>2979.397448872149</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="W38" t="n">
-        <v>2608.398413840436</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="X38" t="n">
-        <v>2218.945808773493</v>
+        <v>3035.024918518875</v>
       </c>
       <c r="Y38" t="n">
-        <v>1822.455099694094</v>
+        <v>2638.534209439476</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>75.96123154786345</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M39" t="n">
-        <v>555.8379692984988</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N39" t="n">
-        <v>1294.106752377725</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O39" t="n">
-        <v>1886.090011940317</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>554.3363259877062</v>
+        <v>231.520043688661</v>
       </c>
       <c r="C40" t="n">
-        <v>554.3363259877062</v>
+        <v>231.520043688661</v>
       </c>
       <c r="D40" t="n">
-        <v>554.3363259877062</v>
+        <v>231.520043688661</v>
       </c>
       <c r="E40" t="n">
-        <v>554.3363259877062</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F40" t="n">
-        <v>397.0103912006792</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G40" t="n">
-        <v>229.0276415110502</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H40" t="n">
         <v>75.96123154786345</v>
@@ -7338,13 +7338,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L40" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M40" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N40" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O40" t="n">
         <v>1044.49322140544</v>
@@ -7353,31 +7353,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q40" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="U40" t="n">
-        <v>825.0913962151051</v>
+        <v>936.7935616985517</v>
       </c>
       <c r="V40" t="n">
-        <v>825.0913962151051</v>
+        <v>934.1387866658015</v>
       </c>
       <c r="W40" t="n">
-        <v>825.0913962151051</v>
+        <v>650.8083845969792</v>
       </c>
       <c r="X40" t="n">
-        <v>825.0913962151051</v>
+        <v>416.7280623799622</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.5443446790075</v>
+        <v>416.7280623799622</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1789.07538005752</v>
+        <v>2116.938658611575</v>
       </c>
       <c r="C41" t="n">
-        <v>1395.899878560451</v>
+        <v>1723.763157114506</v>
       </c>
       <c r="D41" t="n">
-        <v>1010.458749777118</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="E41" t="n">
-        <v>607.8752248936629</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F41" t="n">
-        <v>190.9807864236407</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G41" t="n">
-        <v>190.9807864236407</v>
+        <v>508.8696605480199</v>
       </c>
       <c r="H41" t="n">
         <v>190.9807864236407</v>
@@ -7411,10 +7411,10 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7429,34 +7429,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P41" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S41" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T41" t="n">
-        <v>3798.061577393172</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="U41" t="n">
-        <v>3688.619284243453</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.512474946972</v>
+        <v>3577.208601638123</v>
       </c>
       <c r="W41" t="n">
-        <v>2975.513439915259</v>
+        <v>3206.20956660641</v>
       </c>
       <c r="X41" t="n">
-        <v>2586.060834848316</v>
+        <v>2913.924113402371</v>
       </c>
       <c r="Y41" t="n">
-        <v>2189.570125768917</v>
+        <v>2517.433404322972</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J42" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K42" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L42" t="n">
-        <v>313.8895596758445</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M42" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O42" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P42" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q42" t="n">
         <v>2352.277072610002</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>844.5360443825233</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="C43" t="n">
-        <v>674.3309264485125</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="D43" t="n">
-        <v>533.1430214819636</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="E43" t="n">
-        <v>533.1430214819636</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="F43" t="n">
-        <v>533.1430214819636</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="G43" t="n">
-        <v>365.1602717923346</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="H43" t="n">
-        <v>212.0938618291478</v>
+        <v>200.8967993676811</v>
       </c>
       <c r="I43" t="n">
-        <v>87.15829400933012</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J43" t="n">
         <v>75.96123154786345</v>
@@ -7575,13 +7575,13 @@
         <v>188.6896288950475</v>
       </c>
       <c r="L43" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M43" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N43" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O43" t="n">
         <v>1044.49322140544</v>
@@ -7590,31 +7590,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q43" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R43" t="n">
         <v>1110.515389561699</v>
       </c>
       <c r="S43" t="n">
-        <v>1110.515389561699</v>
+        <v>912.4273982201044</v>
       </c>
       <c r="T43" t="n">
-        <v>1110.515389561699</v>
+        <v>677.8675552895655</v>
       </c>
       <c r="U43" t="n">
-        <v>1110.515389561699</v>
+        <v>392.4435619429715</v>
       </c>
       <c r="V43" t="n">
-        <v>844.5360443825233</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="W43" t="n">
-        <v>844.5360443825233</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="X43" t="n">
-        <v>844.5360443825233</v>
+        <v>358.2227341547082</v>
       </c>
       <c r="Y43" t="n">
-        <v>844.5360443825233</v>
+        <v>358.2227341547082</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2106.964254181899</v>
+        <v>1723.763157114506</v>
       </c>
       <c r="C44" t="n">
-        <v>1713.78875268483</v>
+        <v>1723.763157114506</v>
       </c>
       <c r="D44" t="n">
-        <v>1328.347623901498</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="E44" t="n">
-        <v>925.7640990180421</v>
+        <v>1338.322028331173</v>
       </c>
       <c r="F44" t="n">
-        <v>508.8696605480199</v>
+        <v>921.4275898611513</v>
       </c>
       <c r="G44" t="n">
         <v>508.8696605480199</v>
@@ -7684,16 +7684,16 @@
         <v>3168.773180116326</v>
       </c>
       <c r="V44" t="n">
-        <v>3168.773180116326</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W44" t="n">
-        <v>2797.774145084614</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X44" t="n">
-        <v>2797.774145084614</v>
+        <v>2124.257902825902</v>
       </c>
       <c r="Y44" t="n">
-        <v>2401.283436005215</v>
+        <v>2124.257902825902</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>75.96123154786345</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K45" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L45" t="n">
-        <v>313.8895596758443</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M45" t="n">
-        <v>1022.025029968184</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.29381304741</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q45" t="n">
         <v>2352.277072610002</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>990.4638190458068</v>
+        <v>665.1551345691507</v>
       </c>
       <c r="C46" t="n">
-        <v>990.4638190458068</v>
+        <v>665.1551345691507</v>
       </c>
       <c r="D46" t="n">
-        <v>834.8307059483216</v>
+        <v>509.5220214716654</v>
       </c>
       <c r="E46" t="n">
-        <v>679.2718938075241</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="F46" t="n">
-        <v>521.945959020497</v>
+        <v>353.9632093308679</v>
       </c>
       <c r="G46" t="n">
         <v>353.9632093308679</v>
@@ -7836,22 +7836,22 @@
         <v>1110.515389561699</v>
       </c>
       <c r="T46" t="n">
-        <v>1110.515389561699</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="U46" t="n">
-        <v>990.4638190458068</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="V46" t="n">
-        <v>990.4638190458068</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="W46" t="n">
-        <v>990.4638190458068</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="X46" t="n">
-        <v>990.4638190458068</v>
+        <v>875.9555466311602</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.4638190458068</v>
+        <v>665.1551345691507</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8060,25 +8060,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,22 +8294,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>122.408528569654</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>517.3131487114046</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>295.3946671166309</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>77.24720226890443</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>80.71399862161712</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>132.7719154533585</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>78.44879861622806</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>255.0251814613764</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8789,7 +8789,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.9661527197625</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>77.24720226890443</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>80.71399862161712</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>552.9950001888836</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>262.4090966030196</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>71.06488347458487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>76.5788343427766</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.9661527197625</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>77.24720226890443</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>80.71399862161712</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>700.9839609654873</v>
+        <v>262.4090966030196</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>71.06488347458487</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>76.5788343427766</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.9661527197625</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,7 +9479,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>77.24720226890442</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
         <v>412.5657697396227</v>
@@ -9491,7 +9491,7 @@
         <v>78.44879861622807</v>
       </c>
       <c r="N21" t="n">
-        <v>374.4799943235098</v>
+        <v>255.0251814613764</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>11.21154561935391</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>620.1181623744425</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P24" t="n">
-        <v>462.2976991500816</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>203.3018656667558</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>52.17609846406338</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248232</v>
+        <v>405.2620010947931</v>
       </c>
       <c r="L30" t="n">
-        <v>20.498343894047</v>
+        <v>20.49834389404698</v>
       </c>
       <c r="M30" t="n">
-        <v>495.9355231452482</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463525</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>50.09263685995591</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>454.0922354722276</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O33" t="n">
-        <v>296.744267866067</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>20.498343894047</v>
+        <v>454.0922354722276</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O36" t="n">
-        <v>383.8608417669461</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,19 +10901,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>20.498343894047</v>
+        <v>454.0922354722276</v>
       </c>
       <c r="M39" t="n">
-        <v>495.9355231452482</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10922,7 +10922,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,28 +11138,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>260.8299884677651</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>11.2115456193539</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573954</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P42" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406337</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>37.8634889524823</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>260.829988467765</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>2.04806046157394</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>490.0065148705294</v>
       </c>
       <c r="P45" t="n">
-        <v>25.905898199832</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.0926368599559</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>216.0958762631994</v>
       </c>
       <c r="G11" t="n">
         <v>408.9283142668997</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>31.15461412430886</v>
       </c>
       <c r="S11" t="n">
         <v>162.5055525480066</v>
@@ -23314,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V11" t="n">
-        <v>86.27608506790571</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5253946797129</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>153.5137285205242</v>
       </c>
       <c r="I13" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>26.8138966663509</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>120.5883158341028</v>
       </c>
       <c r="S13" t="n">
-        <v>199.9842001330971</v>
+        <v>148.6646081300458</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.1648087637851</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5818882760543</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>230.8351539761125</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>169.2235384504425</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>408.9283142668997</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>319.7892792266962</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>31.15461412430886</v>
       </c>
       <c r="S14" t="n">
         <v>162.5055525480066</v>
       </c>
       <c r="T14" t="n">
-        <v>185.6407449902713</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,16 +23655,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,10 +23673,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J16" t="n">
-        <v>26.8138966663509</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>120.5883158341028</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93234287030705</v>
+        <v>199.9842001330971</v>
       </c>
       <c r="T16" t="n">
         <v>233.1648087637851</v>
@@ -23718,10 +23718,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>148.3680864726849</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>408.9283142668997</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>319.7892792266962</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>162.5055525480066</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.8155294883027</v>
+        <v>38.66981843569769</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>362.0539537507908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23898,22 +23898,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>152.9376064445697</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5253946797129</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>153.5137285205242</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>130.3765665682599</v>
       </c>
       <c r="J19" t="n">
-        <v>26.8138966663509</v>
+        <v>26.81389666635089</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>120.5883158341028</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.9842001330971</v>
       </c>
       <c r="T19" t="n">
         <v>233.1648087637851</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>124.090661293951</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,13 +23974,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>147.4465620771036</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>132.9900209556174</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>162.5055525480066</v>
       </c>
       <c r="T20" t="n">
         <v>220.8155294883027</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1869771745492</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>312.0687471256149</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>166.5253946797129</v>
       </c>
       <c r="H22" t="n">
-        <v>153.5137285205242</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3765665682599</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>26.81389666635089</v>
@@ -24183,19 +24183,19 @@
         <v>233.1648087637851</v>
       </c>
       <c r="U22" t="n">
-        <v>18.41559789791415</v>
+        <v>247.6033445988131</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>66.49835473633573</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>133.636061176498</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24384,10 +24384,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>7.863567207750634</v>
+        <v>80.97665025253067</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>337.4188877465406</v>
+        <v>186.2151204747587</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
         <v>218.6444459974996</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,10 +24621,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>53.13355477378278</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>34.94156355539644</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>70.46971625711132</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>174.4332787885945</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24849,19 +24849,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>161.1487644910727</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>104.0788266027375</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>103.2358478939245</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.2314431653558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>77.81011144695985</v>
       </c>
       <c r="F34" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H34" t="n">
         <v>151.5357458635549</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>234.5542079680952</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>73.62955363889037</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>48.09762000777886</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>166.3029221927327</v>
@@ -25332,10 +25332,10 @@
         <v>151.5357458635549</v>
       </c>
       <c r="I37" t="n">
-        <v>123.6862121416195</v>
+        <v>47.49309956918985</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S37" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.015632052532</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>275.3030274972674</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>164.7985332422626</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25557,22 +25557,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I40" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
         <v>196.1071114281788</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>260.6913244449613</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.1893595507865</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>144.7994298165756</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>96.19548034427493</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,28 +25788,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>14.30075604962698</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>229.4409322170033</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105.1138082492007</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>57.46274038366619</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26034,10 +26034,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>163.7186986023947</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
@@ -26091,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>12.18853263013366</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>546021.1919144107</v>
+        <v>546021.1919144108</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>600637.0775436455</v>
+        <v>600637.0775436456</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>600637.0775436453</v>
+        <v>600637.0775436455</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>600637.0775436456</v>
+        <v>600637.0775436454</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>600637.0775436455</v>
+        <v>600637.0775436456</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600637.0775436455</v>
+        <v>600637.0775436456</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>540996.5342800702</v>
+        <v>540996.5342800703</v>
       </c>
       <c r="C2" t="n">
         <v>540996.5342800702</v>
       </c>
       <c r="D2" t="n">
-        <v>540996.5342800701</v>
+        <v>540996.5342800705</v>
       </c>
       <c r="E2" t="n">
-        <v>390306.0090521539</v>
+        <v>390306.009052154</v>
       </c>
       <c r="F2" t="n">
-        <v>390306.0090521537</v>
+        <v>390306.0090521541</v>
       </c>
       <c r="G2" t="n">
-        <v>390306.0090521539</v>
+        <v>390306.0090521541</v>
       </c>
       <c r="H2" t="n">
-        <v>390306.0090521539</v>
+        <v>390306.0090521541</v>
       </c>
       <c r="I2" t="n">
         <v>431974.8898668247</v>
@@ -26346,16 +26346,16 @@
         <v>431974.8898668246</v>
       </c>
       <c r="M2" t="n">
-        <v>431974.8898668244</v>
+        <v>431974.8898668247</v>
       </c>
       <c r="N2" t="n">
         <v>431974.8898668245</v>
       </c>
       <c r="O2" t="n">
-        <v>431974.8898668245</v>
+        <v>431974.8898668248</v>
       </c>
       <c r="P2" t="n">
-        <v>431974.8898668246</v>
+        <v>431974.8898668248</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>29417.59821721358</v>
+        <v>29417.59821721372</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7403.759137484451</v>
+        <v>7403.759137484477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>147610.0298663632</v>
       </c>
       <c r="E4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="F4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="G4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="H4" t="n">
-        <v>26177.11148776159</v>
+        <v>26177.11148776158</v>
       </c>
       <c r="I4" t="n">
         <v>25307.38367720429</v>
@@ -26496,7 +26496,7 @@
         <v>60977.55903357454</v>
       </c>
       <c r="K5" t="n">
-        <v>60977.55903357454</v>
+        <v>60977.55903357455</v>
       </c>
       <c r="L5" t="n">
         <v>60977.55903357454</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52329.01193875039</v>
+        <v>52329.01193875051</v>
       </c>
       <c r="C6" t="n">
         <v>312548.3673585793</v>
       </c>
       <c r="D6" t="n">
-        <v>312548.3673585792</v>
+        <v>312548.3673585795</v>
       </c>
       <c r="E6" t="n">
-        <v>285136.8837280159</v>
+        <v>284634.5819772561</v>
       </c>
       <c r="F6" t="n">
-        <v>314554.4819452293</v>
+        <v>314052.1801944699</v>
       </c>
       <c r="G6" t="n">
-        <v>314554.4819452295</v>
+        <v>314052.1801944699</v>
       </c>
       <c r="H6" t="n">
-        <v>314554.4819452295</v>
+        <v>314052.1801944699</v>
       </c>
       <c r="I6" t="n">
-        <v>214711.5590253133</v>
+        <v>214348.1535439357</v>
       </c>
       <c r="J6" t="n">
-        <v>142526.2340433506</v>
+        <v>142162.8285619731</v>
       </c>
       <c r="K6" t="n">
-        <v>345689.9471560457</v>
+        <v>345326.5416746683</v>
       </c>
       <c r="L6" t="n">
-        <v>345689.9471560457</v>
+        <v>345326.5416746683</v>
       </c>
       <c r="M6" t="n">
-        <v>338286.1880185612</v>
+        <v>337922.7825371838</v>
       </c>
       <c r="N6" t="n">
-        <v>345689.9471560457</v>
+        <v>345326.5416746681</v>
       </c>
       <c r="O6" t="n">
-        <v>345689.9471560457</v>
+        <v>345326.5416746684</v>
       </c>
       <c r="P6" t="n">
-        <v>345689.9471560457</v>
+        <v>345326.5416746684</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180516</v>
+        <v>25.57490538180524</v>
       </c>
       <c r="F3" t="n">
-        <v>25.57490538180516</v>
+        <v>25.57490538180524</v>
       </c>
       <c r="G3" t="n">
-        <v>25.57490538180516</v>
+        <v>25.57490538180524</v>
       </c>
       <c r="H3" t="n">
         <v>25.57490538180521</v>
@@ -26798,7 +26798,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>806.198728319728</v>
+        <v>806.1987283197282</v>
       </c>
       <c r="F4" t="n">
         <v>806.198728319728</v>
@@ -26813,22 +26813,22 @@
         <v>949.5153943482933</v>
       </c>
       <c r="J4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="K4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482933</v>
       </c>
       <c r="L4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="M4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="N4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="O4" t="n">
-        <v>949.5153943482931</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="P4" t="n">
         <v>949.5153943482932</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.57490538180516</v>
+        <v>25.57490538180524</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>29.70963201828391</v>
+        <v>29.70963201828412</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>143.3166660285652</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828402</v>
+        <v>29.70963201828412</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>29.70963201828391</v>
+        <v>29.70963201828412</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.89301565210621</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.40739915258115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,7 +27542,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
@@ -27593,16 +27593,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>6.115824932581177</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>126.5252683741704</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>202.3587742827031</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.7537569175439</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,22 +27776,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27827,19 +27827,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>116.4854777676762</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>185.1428973622378</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>47.32564491803055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>248.2844571401661</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>144.1400749395019</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>68.95998192891093</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1028136899771061</v>
+        <v>0.1028136899771064</v>
       </c>
       <c r="H11" t="n">
-        <v>1.052940702478038</v>
+        <v>1.052940702478042</v>
       </c>
       <c r="I11" t="n">
-        <v>3.963724782842387</v>
+        <v>3.963724782842399</v>
       </c>
       <c r="J11" t="n">
-        <v>8.726183419694417</v>
+        <v>8.726183419694445</v>
       </c>
       <c r="K11" t="n">
-        <v>13.07828691642532</v>
+        <v>13.07828691642536</v>
       </c>
       <c r="L11" t="n">
-        <v>16.22477138106219</v>
+        <v>16.22477138106224</v>
       </c>
       <c r="M11" t="n">
-        <v>18.05318434019254</v>
+        <v>18.0531843401926</v>
       </c>
       <c r="N11" t="n">
-        <v>18.34530373684</v>
+        <v>18.34530373684006</v>
       </c>
       <c r="O11" t="n">
-        <v>17.32295010713015</v>
+        <v>17.3229501071302</v>
       </c>
       <c r="P11" t="n">
-        <v>14.78473713582034</v>
+        <v>14.78473713582039</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.10272186351522</v>
+        <v>11.10272186351526</v>
       </c>
       <c r="R11" t="n">
-        <v>6.458370453024397</v>
+        <v>6.458370453024417</v>
       </c>
       <c r="S11" t="n">
-        <v>2.342866960353308</v>
+        <v>2.342866960353315</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4500669278747822</v>
+        <v>0.4500669278747836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.008225095198168487</v>
+        <v>0.008225095198168513</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05501017384010922</v>
+        <v>0.05501017384010939</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5312824684031602</v>
+        <v>0.5312824684031618</v>
       </c>
       <c r="I12" t="n">
-        <v>1.893990634407269</v>
+        <v>1.893990634407275</v>
       </c>
       <c r="J12" t="n">
-        <v>5.197255064428916</v>
+        <v>5.197255064428933</v>
       </c>
       <c r="K12" t="n">
-        <v>8.882936711716233</v>
+        <v>8.882936711716262</v>
       </c>
       <c r="L12" t="n">
-        <v>11.94420463137986</v>
+        <v>11.94420463137989</v>
       </c>
       <c r="M12" t="n">
-        <v>13.93832343308381</v>
+        <v>13.93832343308386</v>
       </c>
       <c r="N12" t="n">
-        <v>14.30722937958174</v>
+        <v>14.30722937958179</v>
       </c>
       <c r="O12" t="n">
-        <v>13.08831973817721</v>
+        <v>13.08831973817725</v>
       </c>
       <c r="P12" t="n">
-        <v>10.50453047653805</v>
+        <v>10.50453047653808</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.022000436151487</v>
+        <v>7.022000436151509</v>
       </c>
       <c r="R12" t="n">
-        <v>3.415456231932397</v>
+        <v>3.415456231932407</v>
       </c>
       <c r="S12" t="n">
-        <v>1.0217898518108</v>
+        <v>1.021789851810803</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2217296042064051</v>
+        <v>0.2217296042064058</v>
       </c>
       <c r="U12" t="n">
-        <v>0.003619090384217713</v>
+        <v>0.003619090384217725</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04611868183604209</v>
+        <v>0.04611868183604224</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4100370075968109</v>
+        <v>0.4100370075968122</v>
       </c>
       <c r="I13" t="n">
-        <v>1.386914541032975</v>
+        <v>1.38691454103298</v>
       </c>
       <c r="J13" t="n">
-        <v>3.260590805808176</v>
+        <v>3.260590805808186</v>
       </c>
       <c r="K13" t="n">
-        <v>5.358152307860162</v>
+        <v>5.358152307860179</v>
       </c>
       <c r="L13" t="n">
-        <v>6.856590206787568</v>
+        <v>6.85659020678759</v>
       </c>
       <c r="M13" t="n">
-        <v>7.229313008171579</v>
+        <v>7.229313008171602</v>
       </c>
       <c r="N13" t="n">
-        <v>7.057416103146337</v>
+        <v>7.05741610314636</v>
       </c>
       <c r="O13" t="n">
-        <v>6.51866604715257</v>
+        <v>6.518666047152591</v>
       </c>
       <c r="P13" t="n">
-        <v>5.577844937697307</v>
+        <v>5.577844937697325</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.861810712652579</v>
+        <v>3.861810712652592</v>
       </c>
       <c r="R13" t="n">
-        <v>2.073663639646038</v>
+        <v>2.073663639646044</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8037228461790241</v>
+        <v>0.8037228461790268</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1970525496630889</v>
+        <v>0.1970525496630895</v>
       </c>
       <c r="U13" t="n">
-        <v>0.002515564463784117</v>
+        <v>0.002515564463784125</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1028136899771061</v>
+        <v>0.1028136899771064</v>
       </c>
       <c r="H14" t="n">
-        <v>1.052940702478038</v>
+        <v>1.052940702478042</v>
       </c>
       <c r="I14" t="n">
-        <v>3.963724782842386</v>
+        <v>3.963724782842399</v>
       </c>
       <c r="J14" t="n">
-        <v>8.726183419694417</v>
+        <v>8.726183419694445</v>
       </c>
       <c r="K14" t="n">
-        <v>13.07828691642532</v>
+        <v>13.07828691642536</v>
       </c>
       <c r="L14" t="n">
-        <v>16.22477138106218</v>
+        <v>16.22477138106224</v>
       </c>
       <c r="M14" t="n">
-        <v>18.05318434019254</v>
+        <v>18.0531843401926</v>
       </c>
       <c r="N14" t="n">
-        <v>18.34530373684</v>
+        <v>18.34530373684006</v>
       </c>
       <c r="O14" t="n">
-        <v>17.32295010713015</v>
+        <v>17.3229501071302</v>
       </c>
       <c r="P14" t="n">
-        <v>14.78473713582034</v>
+        <v>14.78473713582039</v>
       </c>
       <c r="Q14" t="n">
-        <v>11.10272186351522</v>
+        <v>11.10272186351526</v>
       </c>
       <c r="R14" t="n">
-        <v>6.458370453024396</v>
+        <v>6.458370453024417</v>
       </c>
       <c r="S14" t="n">
-        <v>2.342866960353307</v>
+        <v>2.342866960353315</v>
       </c>
       <c r="T14" t="n">
-        <v>0.4500669278747821</v>
+        <v>0.4500669278747836</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008225095198168485</v>
+        <v>0.008225095198168513</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05501017384010921</v>
+        <v>0.05501017384010939</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5312824684031601</v>
+        <v>0.5312824684031618</v>
       </c>
       <c r="I15" t="n">
-        <v>1.893990634407269</v>
+        <v>1.893990634407275</v>
       </c>
       <c r="J15" t="n">
-        <v>5.197255064428916</v>
+        <v>5.197255064428933</v>
       </c>
       <c r="K15" t="n">
-        <v>8.882936711716232</v>
+        <v>8.882936711716262</v>
       </c>
       <c r="L15" t="n">
-        <v>11.94420463137985</v>
+        <v>11.94420463137989</v>
       </c>
       <c r="M15" t="n">
-        <v>13.93832343308381</v>
+        <v>13.93832343308386</v>
       </c>
       <c r="N15" t="n">
-        <v>14.30722937958174</v>
+        <v>14.30722937958179</v>
       </c>
       <c r="O15" t="n">
-        <v>13.08831973817721</v>
+        <v>13.08831973817725</v>
       </c>
       <c r="P15" t="n">
-        <v>10.50453047653805</v>
+        <v>10.50453047653808</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.022000436151485</v>
+        <v>7.022000436151509</v>
       </c>
       <c r="R15" t="n">
-        <v>3.415456231932396</v>
+        <v>3.415456231932407</v>
       </c>
       <c r="S15" t="n">
-        <v>1.0217898518108</v>
+        <v>1.021789851810803</v>
       </c>
       <c r="T15" t="n">
-        <v>0.221729604206405</v>
+        <v>0.2217296042064058</v>
       </c>
       <c r="U15" t="n">
-        <v>0.003619090384217713</v>
+        <v>0.003619090384217725</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04611868183604208</v>
+        <v>0.04611868183604224</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4100370075968108</v>
+        <v>0.4100370075968122</v>
       </c>
       <c r="I16" t="n">
-        <v>1.386914541032975</v>
+        <v>1.38691454103298</v>
       </c>
       <c r="J16" t="n">
-        <v>3.260590805808175</v>
+        <v>3.260590805808186</v>
       </c>
       <c r="K16" t="n">
-        <v>5.358152307860161</v>
+        <v>5.358152307860179</v>
       </c>
       <c r="L16" t="n">
-        <v>6.856590206787567</v>
+        <v>6.85659020678759</v>
       </c>
       <c r="M16" t="n">
-        <v>7.229313008171578</v>
+        <v>7.229313008171602</v>
       </c>
       <c r="N16" t="n">
-        <v>7.057416103146336</v>
+        <v>7.05741610314636</v>
       </c>
       <c r="O16" t="n">
-        <v>6.518666047152569</v>
+        <v>6.518666047152591</v>
       </c>
       <c r="P16" t="n">
-        <v>5.577844937697306</v>
+        <v>5.577844937697325</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.861810712652579</v>
+        <v>3.861810712652592</v>
       </c>
       <c r="R16" t="n">
-        <v>2.073663639646037</v>
+        <v>2.073663639646044</v>
       </c>
       <c r="S16" t="n">
-        <v>0.803722846179024</v>
+        <v>0.8037228461790268</v>
       </c>
       <c r="T16" t="n">
-        <v>0.1970525496630889</v>
+        <v>0.1970525496630895</v>
       </c>
       <c r="U16" t="n">
-        <v>0.002515564463784117</v>
+        <v>0.002515564463784125</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1028136899771061</v>
+        <v>0.1028136899771064</v>
       </c>
       <c r="H17" t="n">
-        <v>1.052940702478038</v>
+        <v>1.052940702478042</v>
       </c>
       <c r="I17" t="n">
-        <v>3.963724782842386</v>
+        <v>3.963724782842399</v>
       </c>
       <c r="J17" t="n">
-        <v>8.726183419694417</v>
+        <v>8.726183419694445</v>
       </c>
       <c r="K17" t="n">
-        <v>13.07828691642532</v>
+        <v>13.07828691642536</v>
       </c>
       <c r="L17" t="n">
-        <v>16.22477138106218</v>
+        <v>16.22477138106224</v>
       </c>
       <c r="M17" t="n">
-        <v>18.05318434019254</v>
+        <v>18.0531843401926</v>
       </c>
       <c r="N17" t="n">
-        <v>18.34530373684</v>
+        <v>18.34530373684006</v>
       </c>
       <c r="O17" t="n">
-        <v>17.32295010713015</v>
+        <v>17.3229501071302</v>
       </c>
       <c r="P17" t="n">
-        <v>14.78473713582034</v>
+        <v>14.78473713582039</v>
       </c>
       <c r="Q17" t="n">
-        <v>11.10272186351522</v>
+        <v>11.10272186351526</v>
       </c>
       <c r="R17" t="n">
-        <v>6.458370453024396</v>
+        <v>6.458370453024417</v>
       </c>
       <c r="S17" t="n">
-        <v>2.342866960353307</v>
+        <v>2.342866960353315</v>
       </c>
       <c r="T17" t="n">
-        <v>0.4500669278747821</v>
+        <v>0.4500669278747836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.008225095198168485</v>
+        <v>0.008225095198168513</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05501017384010921</v>
+        <v>0.05501017384010939</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5312824684031601</v>
+        <v>0.5312824684031618</v>
       </c>
       <c r="I18" t="n">
-        <v>1.893990634407269</v>
+        <v>1.893990634407275</v>
       </c>
       <c r="J18" t="n">
-        <v>5.197255064428916</v>
+        <v>5.197255064428933</v>
       </c>
       <c r="K18" t="n">
-        <v>8.882936711716232</v>
+        <v>8.882936711716262</v>
       </c>
       <c r="L18" t="n">
-        <v>11.94420463137985</v>
+        <v>11.94420463137989</v>
       </c>
       <c r="M18" t="n">
-        <v>13.93832343308381</v>
+        <v>13.93832343308386</v>
       </c>
       <c r="N18" t="n">
-        <v>14.30722937958174</v>
+        <v>14.30722937958179</v>
       </c>
       <c r="O18" t="n">
-        <v>13.08831973817721</v>
+        <v>13.08831973817725</v>
       </c>
       <c r="P18" t="n">
-        <v>10.50453047653805</v>
+        <v>10.50453047653808</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.022000436151485</v>
+        <v>7.022000436151509</v>
       </c>
       <c r="R18" t="n">
-        <v>3.415456231932396</v>
+        <v>3.415456231932407</v>
       </c>
       <c r="S18" t="n">
-        <v>1.0217898518108</v>
+        <v>1.021789851810803</v>
       </c>
       <c r="T18" t="n">
-        <v>0.221729604206405</v>
+        <v>0.2217296042064058</v>
       </c>
       <c r="U18" t="n">
-        <v>0.003619090384217713</v>
+        <v>0.003619090384217725</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04611868183604208</v>
+        <v>0.04611868183604224</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4100370075968108</v>
+        <v>0.4100370075968122</v>
       </c>
       <c r="I19" t="n">
-        <v>1.386914541032975</v>
+        <v>1.38691454103298</v>
       </c>
       <c r="J19" t="n">
-        <v>3.260590805808175</v>
+        <v>3.260590805808186</v>
       </c>
       <c r="K19" t="n">
-        <v>5.358152307860161</v>
+        <v>5.358152307860179</v>
       </c>
       <c r="L19" t="n">
-        <v>6.856590206787567</v>
+        <v>6.85659020678759</v>
       </c>
       <c r="M19" t="n">
-        <v>7.229313008171578</v>
+        <v>7.229313008171602</v>
       </c>
       <c r="N19" t="n">
-        <v>7.057416103146336</v>
+        <v>7.05741610314636</v>
       </c>
       <c r="O19" t="n">
-        <v>6.518666047152569</v>
+        <v>6.518666047152591</v>
       </c>
       <c r="P19" t="n">
-        <v>5.577844937697306</v>
+        <v>5.577844937697325</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.861810712652579</v>
+        <v>3.861810712652592</v>
       </c>
       <c r="R19" t="n">
-        <v>2.073663639646037</v>
+        <v>2.073663639646044</v>
       </c>
       <c r="S19" t="n">
-        <v>0.803722846179024</v>
+        <v>0.8037228461790268</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1970525496630889</v>
+        <v>0.1970525496630895</v>
       </c>
       <c r="U19" t="n">
-        <v>0.002515564463784117</v>
+        <v>0.002515564463784125</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H23" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I23" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M23" t="n">
         <v>105.1401664086072</v>
@@ -32727,22 +32727,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,40 +32782,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M24" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T24" t="n">
         <v>1.291333819268329</v>
@@ -32861,31 +32861,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I25" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K25" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N25" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q25" t="n">
         <v>22.4908477815113</v>
@@ -32894,7 +32894,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T25" t="n">
         <v>1.147616812214777</v>
@@ -32937,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I26" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M26" t="n">
         <v>105.1401664086072</v>
@@ -32964,22 +32964,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,40 +33019,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T27" t="n">
         <v>1.291333819268329</v>
@@ -33098,31 +33098,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I28" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K28" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N28" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q28" t="n">
         <v>22.4908477815113</v>
@@ -33131,7 +33131,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T28" t="n">
         <v>1.147616812214777</v>
@@ -33174,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I29" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M29" t="n">
         <v>105.1401664086072</v>
@@ -33201,22 +33201,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,40 +33256,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M30" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T30" t="n">
         <v>1.291333819268329</v>
@@ -33335,31 +33335,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I31" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K31" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N31" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q31" t="n">
         <v>22.4908477815113</v>
@@ -33368,7 +33368,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T31" t="n">
         <v>1.147616812214777</v>
@@ -33411,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H32" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I32" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J32" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K32" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L32" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M32" t="n">
         <v>105.1401664086072</v>
@@ -33438,22 +33438,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P32" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q32" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T32" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,40 +33493,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H33" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I33" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J33" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K33" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L33" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M33" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N33" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O33" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P33" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q33" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R33" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S33" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T33" t="n">
         <v>1.291333819268329</v>
@@ -33572,31 +33572,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H34" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I34" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J34" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K34" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L34" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M34" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N34" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O34" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P34" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q34" t="n">
         <v>22.4908477815113</v>
@@ -33605,7 +33605,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S34" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T34" t="n">
         <v>1.147616812214777</v>
@@ -33648,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H35" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I35" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J35" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K35" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L35" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M35" t="n">
         <v>105.1401664086072</v>
@@ -33675,22 +33675,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P35" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T35" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,40 +33730,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H36" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I36" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J36" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K36" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L36" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M36" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N36" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O36" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P36" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q36" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R36" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S36" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T36" t="n">
         <v>1.291333819268329</v>
@@ -33809,31 +33809,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H37" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I37" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J37" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K37" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L37" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M37" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N37" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O37" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P37" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q37" t="n">
         <v>22.4908477815113</v>
@@ -33842,7 +33842,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S37" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T37" t="n">
         <v>1.147616812214777</v>
@@ -33885,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H38" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I38" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J38" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K38" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L38" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M38" t="n">
         <v>105.1401664086072</v>
@@ -33912,22 +33912,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P38" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q38" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T38" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,40 +33967,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H39" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I39" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J39" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K39" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L39" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M39" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N39" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O39" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P39" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R39" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S39" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T39" t="n">
         <v>1.291333819268329</v>
@@ -34046,31 +34046,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H40" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I40" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J40" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K40" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L40" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M40" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N40" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O40" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P40" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q40" t="n">
         <v>22.4908477815113</v>
@@ -34079,7 +34079,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S40" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T40" t="n">
         <v>1.147616812214777</v>
@@ -34122,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767356</v>
       </c>
       <c r="H41" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I41" t="n">
         <v>23.08438641144037</v>
       </c>
       <c r="J41" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999189</v>
       </c>
       <c r="K41" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798412</v>
       </c>
       <c r="L41" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367555</v>
       </c>
       <c r="M41" t="n">
         <v>105.1401664086072</v>
@@ -34149,22 +34149,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P41" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529576</v>
       </c>
       <c r="Q41" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089763</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T41" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013884</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,40 +34204,40 @@
         <v>0.3203744404713593</v>
       </c>
       <c r="H42" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447076</v>
       </c>
       <c r="I42" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J42" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K42" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085104</v>
       </c>
       <c r="L42" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287125</v>
       </c>
       <c r="M42" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995801</v>
       </c>
       <c r="N42" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259271</v>
       </c>
       <c r="O42" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425364</v>
       </c>
       <c r="P42" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948265</v>
       </c>
       <c r="Q42" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595808</v>
       </c>
       <c r="R42" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S42" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650026</v>
       </c>
       <c r="T42" t="n">
         <v>1.291333819268329</v>
@@ -34283,31 +34283,31 @@
         <v>0.2685911688162244</v>
       </c>
       <c r="H43" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I43" t="n">
         <v>8.077268967673369</v>
       </c>
       <c r="J43" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K43" t="n">
         <v>31.20541034064861</v>
       </c>
       <c r="L43" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927759</v>
       </c>
       <c r="M43" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089234</v>
       </c>
       <c r="N43" t="n">
         <v>41.10177404257735</v>
       </c>
       <c r="O43" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322417</v>
       </c>
       <c r="P43" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q43" t="n">
         <v>22.4908477815113</v>
@@ -34316,7 +34316,7 @@
         <v>12.07683564513678</v>
       </c>
       <c r="S43" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097292</v>
       </c>
       <c r="T43" t="n">
         <v>1.147616812214777</v>
@@ -34716,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>32.81159323632068</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>424.9260266620927</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>205.7977317832976</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,10 +35415,10 @@
         <v>375.686727348205</v>
       </c>
       <c r="L11" t="n">
-        <v>514.5280963492731</v>
+        <v>514.5280963492733</v>
       </c>
       <c r="M11" t="n">
-        <v>569.569244991284</v>
+        <v>569.5692449912841</v>
       </c>
       <c r="N11" t="n">
         <v>551.4880144817512</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L12" t="n">
-        <v>54.65577322782011</v>
+        <v>500.3947964478579</v>
       </c>
       <c r="M12" t="n">
-        <v>648.0511008337719</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7092205013586</v>
+        <v>183.9602979867915</v>
       </c>
       <c r="O12" t="n">
         <v>534.8259789209864</v>
       </c>
       <c r="P12" t="n">
-        <v>420.2230847355253</v>
+        <v>420.2230847355254</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>88.01980999467014</v>
+        <v>88.01980999467015</v>
       </c>
       <c r="L13" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M13" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N13" t="n">
         <v>192.0974504781051</v>
@@ -35588,7 +35588,7 @@
         <v>126.6648810756555</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.318574722805062</v>
+        <v>7.318574722805074</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>375.686727348205</v>
       </c>
       <c r="L14" t="n">
-        <v>514.5280963492731</v>
+        <v>514.5280963492733</v>
       </c>
       <c r="M14" t="n">
-        <v>569.569244991284</v>
+        <v>569.5692449912841</v>
       </c>
       <c r="N14" t="n">
         <v>551.4880144817512</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L15" t="n">
-        <v>474.8788579633452</v>
+        <v>500.3947964478579</v>
       </c>
       <c r="M15" t="n">
-        <v>648.0511008337719</v>
+        <v>183.9602979867915</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7092205013586</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>534.8259789209864</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>420.2230847355254</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>88.01980999467014</v>
+        <v>88.01980999467015</v>
       </c>
       <c r="L16" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M16" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N16" t="n">
         <v>192.0974504781051</v>
@@ -35825,7 +35825,7 @@
         <v>126.6648810756555</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.318574722805062</v>
+        <v>7.318574722805074</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,10 +35889,10 @@
         <v>375.686727348205</v>
       </c>
       <c r="L17" t="n">
-        <v>514.5280963492731</v>
+        <v>514.5280963492733</v>
       </c>
       <c r="M17" t="n">
-        <v>569.569244991284</v>
+        <v>569.5692449912841</v>
       </c>
       <c r="N17" t="n">
         <v>551.4880144817512</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>331.8517711180056</v>
       </c>
       <c r="L18" t="n">
         <v>500.3947964478579</v>
       </c>
       <c r="M18" t="n">
-        <v>622.5351623492592</v>
+        <v>183.9602979867915</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7092205013586</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>534.8259789209864</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>420.2230847355254</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>243.7544161481621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>88.01980999467014</v>
+        <v>88.01980999467015</v>
       </c>
       <c r="L19" t="n">
-        <v>172.6420850288075</v>
+        <v>172.6420850288076</v>
       </c>
       <c r="M19" t="n">
-        <v>195.4026244609635</v>
+        <v>195.4026244609636</v>
       </c>
       <c r="N19" t="n">
         <v>192.0974504781051</v>
@@ -36062,7 +36062,7 @@
         <v>126.6648810756555</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.318574722805062</v>
+        <v>7.318574722805074</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.4548128621334</v>
       </c>
       <c r="K21" t="n">
         <v>331.8517711180056</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>303.4151108489249</v>
+        <v>183.9602979867915</v>
       </c>
       <c r="O21" t="n">
         <v>534.8259789209864</v>
@@ -36378,7 +36378,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>144.5259166669744</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>618.0701019128685</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>436.3918009502496</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36536,7 +36536,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M27" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>367.3985121423108</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>484.7239775258943</v>
+        <v>715.2883538306461</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>745.7260435143696</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>470.8960208784699</v>
@@ -37010,7 +37010,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q32" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
-        <v>558.0125947793492</v>
+        <v>433.5938915781806</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>280.2819382414318</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q35" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>433.5938915781806</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>367.3985121423109</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P36" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q38" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>433.5938915781806</v>
       </c>
       <c r="M39" t="n">
-        <v>484.7239775258943</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P39" t="n">
         <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q41" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L42" t="n">
-        <v>240.3316445737182</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470627</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>153.5719171373313</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>240.3316445737181</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143696</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470628</v>
+        <v>473.5441852458941</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
